--- a/ProjectPlan.xlsx
+++ b/ProjectPlan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\madhua.JAMP100D\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E755AA-2560-459F-B3BD-2B880F4D64F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41C9E68-0596-41D9-9051-8EDC8BFD6CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
   <si>
     <t>Problem summary</t>
   </si>
@@ -139,6 +139,30 @@
   </si>
   <si>
     <t>Expecting 2 to 3 hrs of billing on 03.Mar</t>
+  </si>
+  <si>
+    <t>04.03.2025</t>
+  </si>
+  <si>
+    <t>Create a new odata project with custom table</t>
+  </si>
+  <si>
+    <t>Odata coding</t>
+  </si>
+  <si>
+    <t>3 hr</t>
+  </si>
+  <si>
+    <t>3hr</t>
+  </si>
+  <si>
+    <t>New odata service ( PGI )</t>
+  </si>
+  <si>
+    <t>Business claimed that they are ready with the requirments , so need to check</t>
+  </si>
+  <si>
+    <t>Expecting 3 - 4 hrs of billing on 04.Mar</t>
   </si>
 </sst>
 </file>
@@ -162,12 +186,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -208,20 +250,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -520,25 +572,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -551,169 +603,218 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G5" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:7" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G7" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
+      <c r="F9" s="7"/>
+      <c r="G9" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+    <row r="10" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D11" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="5" t="s">
+      <c r="F11" s="7"/>
+      <c r="G11" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
